--- a/Excel/Stetson/2022.02.08/part 2/03.03.2022 STETSON — загрузка.xlsx
+++ b/Excel/Stetson/2022.02.08/part 2/03.03.2022 STETSON — загрузка.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4937E3E3-DF75-4217-9D6C-622CE7C405F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Stetson\2022.02.08\part 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2942C792-A7AD-4D21-AEB1-4691BE7014E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{008FA556-4252-488C-A603-B57636465DA4}"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Загрузка" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Загрузка!$G$1:$W$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Загрузка!$A$1:$W$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1339,14 +1344,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F73DA5-C4FE-4842-AD4E-7E22F3723903}">
-  <sheetPr codeName="Лист28">
+  <sheetPr codeName="Лист28" filterMode="1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM26" sqref="AM26"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V77" sqref="V77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1517,7 +1522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1720,7 +1725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1858,7 +1863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1927,7 +1932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1996,7 +2001,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -2203,7 +2208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -2479,7 +2484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -2686,7 +2691,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -2755,7 +2760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2824,7 +2829,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -2893,7 +2898,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -2962,7 +2967,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3031,7 +3036,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -3100,7 +3105,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -3169,7 +3174,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -3238,7 +3243,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -3307,7 +3312,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -3376,7 +3381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3445,7 +3450,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -3652,7 +3657,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -3790,7 +3795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -3928,7 +3933,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3997,7 +4002,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -4066,7 +4071,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -4204,7 +4209,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -4273,7 +4278,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -4342,7 +4347,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -4411,7 +4416,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -4480,7 +4485,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -4549,7 +4554,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -4618,7 +4623,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -4687,7 +4692,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -4756,7 +4761,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>184</v>
       </c>
@@ -4825,7 +4830,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -4894,7 +4899,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>195</v>
       </c>
@@ -4963,7 +4968,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -5101,7 +5106,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -5233,13 +5238,13 @@
         <v>216</v>
       </c>
       <c r="V56" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="W56" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>218</v>
       </c>
@@ -5308,7 +5313,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>218</v>
       </c>
@@ -5377,7 +5382,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>224</v>
       </c>
@@ -5446,7 +5451,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>224</v>
       </c>
@@ -5515,7 +5520,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>229</v>
       </c>
@@ -5584,7 +5589,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>229</v>
       </c>
@@ -5653,7 +5658,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -5722,7 +5727,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>229</v>
       </c>
@@ -5791,7 +5796,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>240</v>
       </c>
@@ -5860,7 +5865,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>240</v>
       </c>
@@ -5929,7 +5934,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>240</v>
       </c>
@@ -5998,7 +6003,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>248</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>252</v>
       </c>
@@ -6136,7 +6141,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>252</v>
       </c>
@@ -6205,7 +6210,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>258</v>
       </c>
@@ -6274,7 +6279,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -6343,7 +6348,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>265</v>
       </c>
@@ -6413,6 +6418,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W73" xr:uid="{34F73DA5-C4FE-4842-AD4E-7E22F3723903}">
+    <filterColumn colId="21">
+      <filters>
+        <filter val="небесный"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="V74:V1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>_xludf.isFormula(V74)</formula>
